--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>493813.0690141435</v>
+        <v>555594.0672977249</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484453</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7861533.313279254</v>
+        <v>7861533.313279256</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>332.0164959768352</v>
+        <v>253.912254033033</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.7676031395163</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.13701020254948</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>267.519256446103</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -908,10 +908,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>293.0915094375509</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,10 +1063,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>197.6946638292088</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>107.3792913045954</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>378.411688147051</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>326.4466206739652</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1297,7 +1297,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>209.365623714855</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>13.5144690908967</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>101.4556968337263</v>
+        <v>236.0942751322864</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682136</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170475</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>32.67077719907196</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>173.7950029088911</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.34318456170431</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>176.9484966573163</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>129.372720328347</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518618</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>32.67077719907196</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>173.7950029088902</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170561</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>161.6379250432772</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819019393</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3196,13 +3196,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>60.7800154930367</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>82.62483121292118</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3266,7 +3266,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3430,7 +3430,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3481,10 +3481,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>35.51678257079493</v>
       </c>
       <c r="W37" t="n">
-        <v>188.7973936038625</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3518,10 +3518,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313376</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556927</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3566,10 +3566,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T40" t="n">
-        <v>216.4273177172965</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3901,22 +3901,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3463188443669</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>219.287534548411</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>22.28534392847681</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924881</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1200.82101935483</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439874</v>
+        <v>1166.718950578658</v>
       </c>
       <c r="D2" t="n">
-        <v>393.5576814812557</v>
+        <v>730.809165753102</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>474.332141477311</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>450.5051159269228</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>656.8099308587475</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>656.8099308587475</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797685</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.21016275628</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2454.549176960774</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>2035.406713540085</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>1627.120589839738</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397426</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940196</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.0221647221273</v>
+        <v>1092.169142605985</v>
       </c>
       <c r="C4" t="n">
-        <v>682.0221647221273</v>
+        <v>919.6074310892103</v>
       </c>
       <c r="D4" t="n">
-        <v>516.14417192365</v>
+        <v>753.729438290733</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>583.9714345414702</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>407.2643805032264</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>241.6731055290541</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>101.7709312194286</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>509.5707382202689</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>929.6236371651722</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674662</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645004</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512705</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2028.82559109116</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>2028.82559109116</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>2028.82559109116</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.497835670078</v>
+        <v>1756.799186677452</v>
       </c>
       <c r="X4" t="n">
-        <v>999.1060810034901</v>
+        <v>1511.407432010864</v>
       </c>
       <c r="Y4" t="n">
-        <v>771.6864103175983</v>
+        <v>1283.987761324973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.8743158913576</v>
+        <v>462.0641869984253</v>
       </c>
       <c r="C5" t="n">
-        <v>520.7722471151849</v>
+        <v>427.9621182222527</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.1334823358613</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>598.1417886842986</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>598.1417886842986</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>432.2637958858213</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5057921365585</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1653.597487995201</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1070.953214036778</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1070.953214036778</v>
+        <v>1569.669750526085</v>
       </c>
       <c r="X7" t="n">
-        <v>825.5614593701903</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y7" t="n">
-        <v>598.1417886842986</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>912.8448430419937</v>
+        <v>1674.602188492497</v>
       </c>
       <c r="C8" t="n">
-        <v>878.742774265821</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D8" t="n">
-        <v>846.8733934806696</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>464.639365049305</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851273</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851273</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851273</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851273</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851273</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851273</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851273</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576077</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>946.8773380567028</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1214.390006873485</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1669.44270817258</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798675</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1359.307243115692</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1359.307243115692</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>954.4517885267253</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X8" t="n">
-        <v>939.34972914644</v>
+        <v>2105.147478637348</v>
       </c>
       <c r="Y8" t="n">
-        <v>935.1040094864975</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230025</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851273</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851273</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851273</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851273</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851273</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851273</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149456969</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.733516244792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>857.4121430958066</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>684.8504315790316</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>518.9724387805543</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>518.9724387805543</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423105</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681382</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851273</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851273</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232026</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>541.5615023911637</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>996.6142036902586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729514</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.089878955295</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1592.717326504092</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1314.284325757197</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1314.284325757197</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1102.803897762394</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>857.4121430958066</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>857.4121430958066</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.30874198473</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168154</v>
+        <v>2034.581622478953</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.256484342598</v>
+        <v>1598.671837653397</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.481739500893</v>
+        <v>1164.897092811692</v>
       </c>
       <c r="F11" t="n">
-        <v>600.6143099101009</v>
+        <v>737.0296632208997</v>
       </c>
       <c r="G11" t="n">
-        <v>199.216478533364</v>
+        <v>335.6318318441635</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M11" t="n">
         <v>1253.783811891666</v>
       </c>
       <c r="N11" t="n">
-        <v>2379.514795328113</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3359.694461898419</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4188.004336731816</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4734.50312269041</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928797</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245814</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.89235417964</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590674</v>
+        <v>3726.452252901473</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169985</v>
+        <v>3307.309789480784</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469638</v>
+        <v>2899.023665780437</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.77217639691919</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111518</v>
+        <v>421.3305013631315</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987274</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819523</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D13" t="n">
-        <v>467.790109783475</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342122</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959685</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177145</v>
+        <v>1204.050282208978</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
         <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.783811891666</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N14" t="n">
-        <v>2379.514795328113</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3359.694461898419</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4188.004336731816</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4734.50312269041</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,10 +5306,10 @@
         <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
         <v>4181.958796257035</v>
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987269</v>
+        <v>833.4958082805804</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819519</v>
+        <v>660.9340967638053</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834746</v>
+        <v>495.056103965328</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342118</v>
+        <v>325.2981002160652</v>
       </c>
       <c r="F16" t="n">
-        <v>121.325051995968</v>
+        <v>325.2981002160652</v>
       </c>
       <c r="G16" t="n">
-        <v>121.325051995968</v>
+        <v>325.2981002160652</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713471</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170193</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.048432817714</v>
+        <v>1025.314426999568</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526435</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847301</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>516.9624360939378</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503958</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3408549543107</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
         <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5701,13 +5701,13 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243222</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
         <v>1611.862057829513</v>
@@ -5716,7 +5716,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062125</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
         <v>2085.232711245548</v>
@@ -5738,52 +5738,52 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.925458503957</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940404</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928796</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245813</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V20" t="n">
         <v>4181.958796257035</v>
@@ -5795,7 +5795,7 @@
         <v>3357.960878247379</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
-        <v>96.73597668111516</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>96.73597668111516</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>96.73597668111516</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.794137292997</v>
+        <v>806.2298140987283</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>633.6681025819532</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777442</v>
+        <v>467.7901097834759</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284815</v>
+        <v>298.0321060342131</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902377</v>
+        <v>121.3250519959693</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5938,22 +5938,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2390.883586525066</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U22" t="n">
-        <v>2112.450585778171</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W22" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170195</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y22" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177154</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928211</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728802</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6230,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6364,16 +6364,16 @@
         <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6643,10 +6643,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
         <v>2454.80183470935</v>
@@ -6698,10 +6698,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
         <v>306.120802776629</v>
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O33" t="n">
         <v>287.8657185439749</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716166</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731393</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6941,46 +6941,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>871.6588228237728</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C37" t="n">
-        <v>699.0971113069977</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>533.2191185085204</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
         <v>533.2191185085204</v>
@@ -7120,7 +7120,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
         <v>2292.381813755403</v>
@@ -7129,16 +7129,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W37" t="n">
-        <v>1536.288866895239</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X37" t="n">
-        <v>1290.897112228652</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y37" t="n">
-        <v>1063.47744154276</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,46 +7178,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3233.142235235646</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3060.580523718871</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>2894.702530920393</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>2724.944527171131</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2724.944527171131</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171131</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861505</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.96208880087</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>4735.187192597285</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4456.75419185039</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4169.798683720821</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W40" t="n">
-        <v>3897.772279307112</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3652.380524640525</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3424.960853954633</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,37 +7409,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L41" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912873</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883919</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716168</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>639.1929661716168</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>639.1929661716168</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>462.4859121333731</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173567</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.992967093271</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7673,25 +7673,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.5782250957668</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>777.0165135789917</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>611.1385207805145</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E46" t="n">
-        <v>441.3805170312518</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>264.6734629930079</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7834,22 +7834,22 @@
         <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167233</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>479.9987875054308</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099322</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8140,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>115.4433635180153</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>211.3803861435672</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866488</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062467</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314091</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,16 +8611,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314091</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>75.562046504298</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>1069.568313180546</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>103.3290013791402</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949898737</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>103.3290013791402</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>922.5467809925249</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790749</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>103.3290013791411</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>127.53932913075</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>184.7831561774896</v>
+        <v>50.14457787892946</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>161.9268490649759</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23546,13 +23546,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>185.1957776566198</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>185.1957776566206</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>114.1599680048249</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>48.19697732171653</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>268.0111327346206</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>185.1957776566198</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>185.1957776566215</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>81.78272691405206</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.0953302292544</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.14686572942388</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>103.1553467313939</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>160.7958207444081</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>248.5691704774789</v>
       </c>
       <c r="W37" t="n">
-        <v>80.50874676570886</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T40" t="n">
-        <v>26.99333424003275</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>33.58904338006371</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>56.36113619101468</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>141.6500182959538</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.423368029025</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657181.0673631793</v>
+        <v>657181.0673631794</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657181.0673631794</v>
+        <v>657181.0673631795</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657181.0673631793</v>
+        <v>657181.0673631794</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>684914.8593785581</v>
+        <v>684914.859378558</v>
       </c>
     </row>
     <row r="13">
@@ -26326,13 +26326,13 @@
         <v>227485.7540872544</v>
       </c>
       <c r="G2" t="n">
-        <v>227485.7540872543</v>
+        <v>227485.7540872544</v>
       </c>
       <c r="H2" t="n">
         <v>227485.7540872543</v>
       </c>
       <c r="I2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="J2" t="n">
         <v>237085.9128618085</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390672</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200261</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784519</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509842</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715079</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897631</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="G4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="H4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,10 +26448,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825614</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826432</v>
+        <v>806.3323907825614</v>
       </c>
       <c r="O4" t="n">
         <v>806.3323907826023</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846967</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-129517.8881160082</v>
+        <v>-161183.4827828688</v>
       </c>
       <c r="C6" t="n">
-        <v>12673.41254370168</v>
+        <v>36208.81879676878</v>
       </c>
       <c r="D6" t="n">
-        <v>7633.161140448385</v>
+        <v>53549.36317067551</v>
       </c>
       <c r="E6" t="n">
-        <v>-70606.56406358937</v>
+        <v>-8618.904076473264</v>
       </c>
       <c r="F6" t="n">
-        <v>153192.7296884381</v>
+        <v>153116.1711336413</v>
       </c>
       <c r="G6" t="n">
-        <v>153192.729688438</v>
+        <v>153116.1711336412</v>
       </c>
       <c r="H6" t="n">
-        <v>153192.729688438</v>
+        <v>153116.1711336412</v>
       </c>
       <c r="I6" t="n">
-        <v>140196.6262323938</v>
+        <v>140173.4018930114</v>
       </c>
       <c r="J6" t="n">
-        <v>47546.87652024323</v>
+        <v>-2069.711959762446</v>
       </c>
       <c r="K6" t="n">
-        <v>158561.3418652334</v>
+        <v>144724.1089580056</v>
       </c>
       <c r="L6" t="n">
-        <v>149613.7307767235</v>
+        <v>158538.1175258508</v>
       </c>
       <c r="M6" t="n">
-        <v>-28229.64474523428</v>
+        <v>23548.17291284729</v>
       </c>
       <c r="N6" t="n">
-        <v>158561.3418652334</v>
+        <v>158538.1175258508</v>
       </c>
       <c r="O6" t="n">
-        <v>158561.3418652335</v>
+        <v>158538.1175258507</v>
       </c>
       <c r="P6" t="n">
-        <v>158561.3418652334</v>
+        <v>158538.1175258508</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26805,7 +26805,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130479</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130479</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130479</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>97.42050141645257</v>
+        <v>175.5247433602547</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.1328293922809</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>35.63633953052194</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>154.5173183339557</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.1117530257922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>86.39128921906507</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>161.926849064976</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>51.02530924623676</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>74.36027936911177</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>59.94051665471642</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>229.4233680290249</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-2.556569233283702e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>479.9987875054308</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099322</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>115.4433635180153</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>211.3803861435672</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35179,22 +35179,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866488</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062467</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314091</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314091</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>75.562046504298</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>1069.568313180546</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>103.3290013791402</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949898737</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>103.3290013791402</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35890,13 +35890,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>922.5467809925249</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790749</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>103.3290013791411</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36598,7 +36598,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>127.53932913075</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37713,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
